--- a/HIS_WebApi/excel/excel_inventory.xlsx
+++ b/HIS_WebApi/excel/excel_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7730DA-567D-4244-A632-F56417FFF2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D081D-87AB-4246-B32A-7124AE7F2C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2865" windowWidth="21660" windowHeight="11295" xr2:uid="{5C037633-A129-4C06-A220-DA1929D47724}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C037633-A129-4C06-A220-DA1929D47724}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -204,17 +204,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,57 +533,56 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="3" max="4" width="50.375" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="8" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
